--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/10/seed5/result_data_RandomForest.xlsx
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.647700000000002</v>
+        <v>6.3295</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.071099999999997</v>
+        <v>-7.00319999999999</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>15.9245</v>
+        <v>16.22930000000001</v>
       </c>
     </row>
     <row r="9">
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>15.98279999999999</v>
+        <v>16.5701</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.54770000000001</v>
+        <v>-21.57050000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.826099999999999</v>
+        <v>6.887299999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.87270000000001</v>
+        <v>16.8105</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.38199999999999</v>
+        <v>16.4207</v>
       </c>
     </row>
     <row r="16">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.955100000000003</v>
+        <v>3.746000000000005</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.6919</v>
+        <v>-7.801600000000005</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.092800000000004</v>
+        <v>4.754800000000006</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.27860000000001</v>
+        <v>-21.27330000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.132500000000004</v>
+        <v>9.017000000000003</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.7686</v>
+        <v>-19.8796</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.03510000000001</v>
+        <v>15.9937</v>
       </c>
     </row>
     <row r="37">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.986799999999999</v>
+        <v>8.826600000000004</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.40769999999999</v>
+        <v>-19.4142</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.040900000000001</v>
+        <v>-7.132399999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.756</v>
+        <v>5.9072</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.73119999999999</v>
+        <v>-21.6188</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.98559999999999</v>
+        <v>-21.86049999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.5188</v>
+        <v>-22.51490000000002</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.947299999999993</v>
+        <v>4.878599999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.34879999999999</v>
+        <v>-8.221499999999997</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.3397</v>
+        <v>17.4199</v>
       </c>
     </row>
     <row r="65">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.50519999999996</v>
+        <v>-21.47579999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.63469999999997</v>
+        <v>-21.61579999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.06220000000001</v>
+        <v>-22.12660000000001</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.771400000000005</v>
+        <v>-8.748900000000003</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.194599999999998</v>
+        <v>-5.981799999999997</v>
       </c>
       <c r="E89" t="n">
-        <v>19.01450000000003</v>
+        <v>18.62000000000003</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.45260000000001</v>
+        <v>-21.36110000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.130499999999997</v>
+        <v>-5.988399999999997</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.170900000000001</v>
+        <v>-5.967799999999995</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.08579999999998</v>
+        <v>-20.14109999999998</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.150899999999998</v>
+        <v>5.303199999999997</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,13 +2165,13 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.363900000000001</v>
+        <v>8.269400000000005</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.011400000000004</v>
+        <v>-8.0052</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
